--- a/EmployeeDatas.xlsx
+++ b/EmployeeDatas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Emp ID</t>
   </si>
@@ -40,13 +40,31 @@
     <t>pass</t>
   </si>
   <si>
-    <t>gous</t>
-  </si>
-  <si>
-    <t>gousegmail.com</t>
+    <t>Manish</t>
+  </si>
+  <si>
+    <t>mani@gmail.com</t>
   </si>
   <si>
     <t>fail</t>
+  </si>
+  <si>
+    <t>Dini</t>
+  </si>
+  <si>
+    <t>dini@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanjai</t>
+  </si>
+  <si>
+    <t>sanjaigmail.com</t>
+  </si>
+  <si>
+    <t>gouse</t>
+  </si>
+  <si>
+    <t>gouse@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -54,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +90,12 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -103,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -113,6 +137,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -422,17 +449,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="26.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="26.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -471,7 +498,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1">
-        <v>765414</v>
+        <v>33571</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -480,9 +507,60 @@
         <v>9</v>
       </c>
       <c r="D3" s="1">
+        <v>8825278234</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="4">
+        <v>335671</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <v>9787362176</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="4">
+        <v>112418</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8976542673</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="1">
+        <v>765414</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
         <v>987654267</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/EmployeeDatas.xlsx
+++ b/EmployeeDatas.xlsx
@@ -1,108 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="EmployeeDetails"/>
+    <sheet name="EmployeeDetails" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <si>
-    <t>Emp ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Mobile No</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>udhaya</t>
-  </si>
-  <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>Manish</t>
-  </si>
-  <si>
-    <t>mani@gmail.com</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>Dini</t>
-  </si>
-  <si>
-    <t>dini@gmail.com</t>
-  </si>
-  <si>
-    <t>Sanjai</t>
-  </si>
-  <si>
-    <t>sanjaigmail.com</t>
-  </si>
-  <si>
-    <t>gouse</t>
-  </si>
-  <si>
-    <t>gouse@gmail.com</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -125,39 +69,116 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,123 +466,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" style="5" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="26.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col width="18.43357142857143" bestFit="1" customWidth="1" style="9" min="1" max="1"/>
+    <col width="26.29071428571428" bestFit="1" customWidth="1" style="10" min="2" max="2"/>
+    <col width="26.43357142857143" bestFit="1" customWidth="1" style="11" min="3" max="3"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="11" min="4" max="4"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1">
-        <v>987654</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="9" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Mobile No</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Emp Id</t>
+        </is>
+      </c>
+      <c r="E1" s="9" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>^[A-Za-z ]{5,20}$</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>^[a-zA-Z0-9_.]+@[a-zA-Z0-9-]+\.[a-zA-Z0-9-.]+$</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>^[0-9]{10}$</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>\d{6}</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="n"/>
+    </row>
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="9" t="inlineStr">
+        <is>
+          <t>udha</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>abcgmail.com</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>1234567891</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1">
-        <v>33571</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1">
-        <v>8825278234</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="4">
-        <v>335671</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4">
-        <v>9787362176</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="4">
-        <v>112418</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4">
-        <v>8976542673</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1">
-        <v>765414</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1">
-        <v>987654267</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
+      <c r="D3" s="3" t="n">
+        <v>6783</v>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="9" t="inlineStr">
+        <is>
+          <t>Dinesh</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>dini@gmail.com</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>812216565</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>6783</v>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="9" t="inlineStr">
+        <is>
+          <t>san</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>san@gmail.com</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>7448754664</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>6783</v>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>Ghouseuddin</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>gousegmail.com</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>8122176872</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>6783</v>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="9" t="inlineStr">
+        <is>
+          <t>Saravanan</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>saro@gmail.com</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>7686351982</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>334100</v>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="9" t="n"/>
+      <c r="B8" s="7" t="n"/>
+      <c r="C8" s="8" t="n"/>
+      <c r="D8" s="8" t="n"/>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="9" t="inlineStr">
+        <is>
+          <t>Manish</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>mani@gmail.com</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>9787876545</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>678318</v>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
       </c>
     </row>
   </sheetData>
